--- a/payments.xlsx
+++ b/payments.xlsx
@@ -372,52 +372,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>[object Object]</v>
+        <v>Institution</v>
       </c>
       <c r="B1" t="str">
-        <v>[object Object]</v>
+        <v>Student</v>
       </c>
       <c r="C1" t="str">
-        <v>[object Object]</v>
+        <v>Course Fee</v>
       </c>
       <c r="D1" t="str">
-        <v>[object Object]</v>
+        <v>Commission (%)</v>
       </c>
       <c r="E1" t="str">
-        <v>[object Object]</v>
+        <v>Expected Commission</v>
       </c>
       <c r="F1" t="str">
-        <v>[object Object]</v>
+        <v>Due To</v>
       </c>
       <c r="G1" t="str">
-        <v>[object Object]</v>
+        <v>Received Value</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>[object Object]</v>
+        <v>Universal Institute of Technology</v>
       </c>
       <c r="B2" t="str">
-        <v>[object Object]</v>
-      </c>
-      <c r="C2" t="str">
-        <v>[object Object]</v>
-      </c>
-      <c r="D2" t="str">
-        <v>[object Object]</v>
-      </c>
-      <c r="E2" t="str">
-        <v>[object Object]</v>
+        <v>Mariana García</v>
+      </c>
+      <c r="C2">
+        <v>550</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>110</v>
       </c>
       <c r="F2" t="str">
-        <v>[object Object]</v>
-      </c>
-      <c r="G2" t="str">
-        <v>[object Object]</v>
+        <v>2016-01-13T13:00:00.000Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Universal Institute of Technology</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Mariana García</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2016-01-12T13:00:00.000Z</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
